--- a/All MODELS IN CARET.xlsx
+++ b/All MODELS IN CARET.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ransingh.ray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ML" sheetId="1" r:id="rId1"/>
+    <sheet name="TS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ML!$A$2:$G$111</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="384">
   <si>
     <t>Model</t>
   </si>
@@ -275,18 +279,6 @@
     <t>cp</t>
   </si>
   <si>
-    <t>CART or Ordinal Responses</t>
-  </si>
-  <si>
-    <t>rpartScore</t>
-  </si>
-  <si>
-    <t>rpartScore, plyr</t>
-  </si>
-  <si>
-    <t>cp, split, prune</t>
-  </si>
-  <si>
     <t>CHi-squared Automated Interaction Detection</t>
   </si>
   <si>
@@ -491,12 +483,6 @@
     <t>k-Nearest Neighbors</t>
   </si>
   <si>
-    <t>kknn</t>
-  </si>
-  <si>
-    <t>kmax, distance, kernel</t>
-  </si>
-  <si>
     <t>knn</t>
   </si>
   <si>
@@ -512,9 +498,6 @@
     <t>LiblineaR</t>
   </si>
   <si>
-    <t>cost, Loss, weight</t>
-  </si>
-  <si>
     <t>L2 Regularized Support Vector Machine (dual) with Linear Kernel</t>
   </si>
   <si>
@@ -800,15 +783,6 @@
     <t>negativeThreshold</t>
   </si>
   <si>
-    <t>Random Ferns</t>
-  </si>
-  <si>
-    <t>rFerns</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
@@ -1002,15 +976,6 @@
   </si>
   <si>
     <t>sigma, C, Weight</t>
-  </si>
-  <si>
-    <t>Support Vector Machines with Exponential String Kernel</t>
-  </si>
-  <si>
-    <t>svmExpoString</t>
-  </si>
-  <si>
-    <t>lambda, C</t>
   </si>
   <si>
     <t>Support Vector Machines with Linear Kernel</t>
@@ -1232,16 +1197,221 @@
 </t>
   </si>
   <si>
+    <t>https://rdrr.io/cran/caret/man/models.html</t>
+  </si>
+  <si>
+    <t>cost: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.</t>
+  </si>
+  <si>
+    <t>C: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>names(getModelInfo())</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tau: Regularization Parameter (It behaves live the C(Cost))
+seek your optimal C in a range of values 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.
+seek your optimal C in a range of values 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10 or c(0.1,1,10,100)
+Loss function (character): L1 , L2
+Known as maximum-margin hyperplane, finds the linear model with max margin. Unlike the linear classifiers, objective is not minimizing sum of squared errors but finding a line/plane that separates two or more groups with maximum margins. 
+ We know that when we transform the mathematical space from 2 dimensions to higher dimension, the probability of linearly separating the data points increases. 
+ Now given that we have only 2 dimensions x1 and x2, how to create more dimensions out of it? We transform higher mathematical space into dimensions which are polynomials.
+x1, x2, x1^2, x2^2,…each one of them is 1 dimension in the mathematical space. Kernel SVM (KSVM) takes data point to higher mathematical space where they become linearly separable and then draw the plane through the data points. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa. c(0.1,1,10,100) or 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10
+Sigma: Defines the radius of influence of data points in classification. – By Increasing gamma, we have a tight radius of influence of the data points in the classification. c(0.0001,0.001,0.01,0.1,1)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree: Polynomial Degree,
+scale: 1
+tau: Regularization Parameter (It behaves live the C(Cost))
+seek your optimal C in a range of values 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.
+Sigma: Defines the radius of influence of data points in classification. – By Increasing gamma, we have a tight radius of influence of the data points in the classification. c(0.0001,0.001,0.01,0.1,1)
+</t>
+  </si>
+  <si>
+    <t>C: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.
+degree: Polynomial Degree, Kernel trick is used because It offers computationally inexpensive way to scale data into higher dimensions
+scale: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa. c(0.1,1,10,100) or 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10
+Sigma: Defines the radius of influence of data points in classification. – By Increasing gamma, we have a tight radius of influence of the data points in the classification. c(0.0001,0.001,0.01,0.1,1),  Increasing sigma will make Every point to have a tighter radius of influence
+Increasing sigma and c simultaneously, generally initiates this transition in terms of the model: Underfit to Overfit
+</t>
+  </si>
+  <si>
+    <t>In Python
+• Kernel – Used to specify the type of kernel we choose to describe the data points. We need kernels as data when scaled on higher dimensions has a higher probability of being linearly seperable. In sklearn, we can use many kernels such as – rbf, poly, sigmoid, linear, precomputed etc. (In R functions take care of it)
+• C – Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa. 
+• Gamma – Defines the radius of influence of data points in classification. – By Increasing gamma, we have a tight radius of influence of the data points in the classification.</t>
+  </si>
+  <si>
+    <t>Decision tree, cp: threshold value of the entropy drop from parent to child to allow a split</t>
+  </si>
+  <si>
+    <t>mtry: number of attributes to be taken in a tree in a forest</t>
+  </si>
+  <si>
     <t xml:space="preserve"> baselearner = c("bbs", "bols", "btree", "bss", "bns")
-dfbase=a single integer giving the degrees of freedom for P-spline base-learners
+dfbase=a single integer giving the degrees of freedom for P-spline base-learners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost: cost of constraints violation , Defines the misclassification error of the model – if set to high, will have a very high penalty for the misclassified points and vice versa.
+seek your optimal C in a range of values 2^(-10), 2^(-9), ..., 2^0, ..., 2^9, 2^10
+Loss function (character): L1 , L2 (Regularization, L1: Lasso, L2:Ridge
+Known as maximum-margin hyperplane, finds the linear model with max margin. Unlike the linear classifiers, objective is not minimizing sum of squared errors but finding a line/plane that separates two or more groups with maximum margins. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The term linear can be interpreted in two ways:
+1. Linearity in the Variables: variables raised to the power 1
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Linearlity in terms of parameters: All the coefficient raised to the power 1, x can be raised to any power &lt;This is done for the models in R and Python&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assumption:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.  Linearlity in terms of parameters/coefficient: All the coefficient raised to the power 1, x can be raised to any power.
+2. The X values are independent of the error terms.
+3. The mean value of distribution is zero.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Regulariztion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> When we have too many parameters and exposed to curse of dimentionality , we resort to dimentionality reduction technique such as PCA and eliminating the PCs with least value of eigen values. This can be laboureous process before we find the right number of PCs. Instead we can employ the shrinkage method
+The Shrinkage methods attempts to shrink the coefficient of attributes and lead us towards  sipler yet effective models.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Regulariztion: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>When we have too many parameters and exposed to curse of dimentionality , we resort to dimentionality reduction technique such as PCA and eliminating the PCs with least value of eigen values. This can be laboureous process before we find the right number of PCs. Instead we can employ the shrinkage method
+The Shrinkage methods attempts to shrink the coefficient of attributes and lead us towards  sipler yet effective models.</t>
+    </r>
+  </si>
+  <si>
+    <t>When mathematical space is sparce</t>
+  </si>
+  <si>
+    <t>variance error: model good on training but bad on test</t>
+  </si>
+  <si>
+    <t>When mathematical space is sparce. Many variables very few data points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,8 +1464,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1311,6 +1502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1384,17 +1581,52 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,15 +1651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>336096</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>542925</xdr:rowOff>
+      <xdr:rowOff>420213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>760315</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5275736</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1444,8 +1676,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11925300" y="6657975"/>
-          <a:ext cx="4943475" cy="1541365"/>
+          <a:off x="15018203" y="4706463"/>
+          <a:ext cx="4939640" cy="1534933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>857449</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2162300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18738273" y="9369137"/>
+          <a:ext cx="5342857" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>554182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>865243</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>257543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18755591" y="13854546"/>
+          <a:ext cx="5333333" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2775857</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1381595</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>252975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15961178" y="14981463"/>
+          <a:ext cx="7123809" cy="933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1720,434 +2066,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD119"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.140625" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" style="27" customWidth="1"/>
+    <col min="7" max="7" width="79.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="145.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F8" s="13" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:7" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
@@ -2156,100 +2506,108 @@
         <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="F26" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
@@ -2258,134 +2616,142 @@
         <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F31"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>16</v>
@@ -2394,100 +2760,106 @@
         <v>17</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>24</v>
@@ -2496,1237 +2868,1314 @@
       <c r="E42" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="E45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="3" t="s">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="B48" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="E48" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="357" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="24" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="F49" s="29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="B51" s="24" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="F51" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="D52" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="F52" s="30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C53" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="3" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:7" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="D59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="E78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="D81" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:7" ht="172.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
+      <c r="C95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="E95" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E94" s="3" t="s">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="D110" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:7" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>170</v>
+      <c r="D111" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G111"/>
   <mergeCells count="1">
-    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
-    <hyperlink ref="F19" r:id="rId2"/>
-    <hyperlink ref="F20" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="F20" r:id="rId2"/>
+    <hyperlink ref="F21" r:id="rId3"/>
+    <hyperlink ref="A1" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>